--- a/H5_Line_result.xlsx
+++ b/H5_Line_result.xlsx
@@ -380,10 +380,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.09955797191289759</v>
+        <v>0.07287317527981739</v>
       </c>
       <c r="B2" t="n">
-        <v>0.9893314046464553</v>
+        <v>0.995846338696932</v>
       </c>
     </row>
   </sheetData>
